--- a/xlsx/伊拉斯谟奖_intext.xlsx
+++ b/xlsx/伊拉斯谟奖_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_伊拉斯谟奖</t>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_伊拉斯谟奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%A5%BF%E5%BE%B7%E9%87%8C%E4%B9%8C%E6%96%AF%C2%B7%E4%BC%8A%E6%8B%89%E6%96%AF%E8%B0%9F</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>奧地利人</t>
+    <t>奥地利人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%BC%97%E6%89%80</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B8%83%E9%87%8C%E5%9F%83%E7%88%BE%C2%B7%E9%A6%AC%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>加布里埃爾·馬塞爾</t>
+    <t>加布里埃尔·马塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E5%86%AF%C2%B7%E9%AD%8F%E8%8C%A8%E6%B3%BD%E5%85%8B</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E5%A4%8F%E9%9A%86</t>
   </si>
   <si>
-    <t>漢斯·夏隆</t>
+    <t>汉斯·夏隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E7%BB%B4%E5%9F%83%C2%B7%E6%A2%85%E8%A5%BF%E5%AE%89</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E5%81%B6%E6%88%B2</t>
   </si>
   <si>
-    <t>木偶戲</t>
+    <t>木偶戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%8F%E9%BB%8E%E4%B8%96%E6%8A%A5</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瑪麗·羅賓遜</t>
+    <t>玛丽·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E8%BF%AA%E5%A5%A5%C2%B7%E9%A9%AC%E6%A0%BC%E9%87%8C%E6%96%AF</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%C2%B7%E8%AC%9D%E5%B9%B3</t>
   </si>
   <si>
-    <t>史蒂文·謝平</t>
+    <t>史蒂文·谢平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%81%A9%C2%B7%E5%B8%83%E9%B2%81%E7%8E%9B</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%C2%B7%E8%89%BE%E4%BC%AF%E9%AD%AF</t>
   </si>
   <si>
-    <t>何塞·安東尼奧·艾伯魯</t>
+    <t>何塞·安东尼奥·艾伯鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%B8%B9%E5%B0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼爾·丹尼特</t>
+    <t>丹尼尔·丹尼特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
